--- a/downloads/atar_estimates.xlsx
+++ b/downloads/atar_estimates.xlsx
@@ -476,35 +476,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abbott,  Angus Geoffrey</t>
+          <t>Abeyrathne,  Akila Induwara</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72 - 82</t>
+          <t>88 - 98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ANCIENT HISTORY</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
     </row>
@@ -514,35 +514,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abhayapala,  Pallage Hansana Kethmika</t>
+          <t>Alexander,  Rohan Jeffrey</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81 - 91</t>
+          <t>49 - 59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ROBOTICS AND MECHATRONICS</t>
+          <t>MUSIC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
     </row>
@@ -552,35 +552,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Allen,  Ethan Thomas</t>
+          <t>Allen,  Felix James</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>61 - 71</t>
+          <t>82 - 92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DIGITAL TECHNOLOGIES</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>GLOBAL STUDIES</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PSYCHOLOGY</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>MATHEMATICAL APPLICATIONS</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>PHOTOGRAPHY</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>DESIGN &amp; GRAPHICS</t>
         </is>
       </c>
     </row>
@@ -590,35 +590,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Allenby,  Nicola Kate</t>
+          <t>Athanasiou,  Zoe Mia</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>67 - 77</t>
+          <t>63 - 73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>LITERATURE</t>
         </is>
       </c>
     </row>
@@ -628,35 +628,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Antelmi,  Thomas George</t>
+          <t>Atluri,  Siddhardh</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>66 - 76</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>SPECIALIST MATHEMATICS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>GLOBAL STUDIES</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
     </row>
@@ -666,11 +666,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Armstrong,  Elizabeth Fay</t>
+          <t>Babic,  Latisha</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -679,22 +679,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PHILOSOPHY</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ENGLISH / LITERATURE</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ANCIENT HISTORY</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>FURTHER MATHEMATICS</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Baker,  Adam James</t>
+          <t>Bailey,  Oliver Charlie</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -717,22 +717,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PHILOSOPHY</t>
+          <t>DRAMA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>VISUAL ARTS</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>DIGITAL TECHNOLOGIES</t>
         </is>
       </c>
     </row>
@@ -742,35 +742,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Baldwin,  Kate Jane</t>
+          <t>Baird,  Hamish Alexander</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>82 - 92</t>
+          <t>58 - 68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>BUSINESS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>HOSPITALITY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
     </row>
@@ -780,35 +780,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Barrett,  Lachlan Matthew</t>
+          <t>Barbatano,  Thomas Patrick</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>66 - 76</t>
+          <t>76 - 86</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ENGINEERING STUDIES</t>
+          <t>DIGITAL TECHNOLOGIES</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DESIGN &amp; EMERGING TECHNOLOGIES</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>ECONOMICS</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>MATHEMATICAL METHODS</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>BUSINESS</t>
         </is>
       </c>
     </row>
@@ -818,20 +818,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bartier,  Charlotte Grace Walsh</t>
+          <t>Bennett,  Mason Claude</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>52 - 62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CONTINUING JAPANESE</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -856,35 +856,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bartlett,  Georgia Clare</t>
+          <t>Berichon,  Amelie Kay</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>51 - 61</t>
+          <t>56 - 66</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DRAMA</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MODERN HISTORY</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>DESIGN &amp; GRAPHICS</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>VISUAL ARTS</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -894,35 +894,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Batt,  Lincoln John</t>
+          <t>Birmingham,  Emma Jayne</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>75 - 85</t>
+          <t>70 - 80</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>HOSPITALITY</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
     </row>
@@ -932,35 +932,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Benson,  Delle Geneve</t>
+          <t>Black,  Samantha Jane</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>83 - 93</t>
+          <t>52 - 62</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CONTINUING FRENCH</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
     </row>
@@ -970,35 +970,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Berger,  Hannah Alice</t>
+          <t>Blake,  Ryan William</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>85 - 95</t>
+          <t>72 - 82</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FURTHER MATHEMATICS</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -1008,35 +1008,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bhagria,  Suhaan Singh</t>
+          <t>Boshier,  Angus John</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>47 - 57</t>
+          <t>87 - 97</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HOSPITALITY</t>
+          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FURTHER MATHEMATICS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
     </row>
@@ -1046,35 +1046,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Birmingham,  Ted Matthew</t>
+          <t>Boyce,  Lyam John</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>83 - 93</t>
+          <t>89 - 99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ADVANCED FRENCH</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
     </row>
@@ -1084,35 +1084,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Blake,  Nathan Aaron</t>
+          <t>Bradley,  Margaret Christine</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>60 - 70</t>
+          <t>81 - 91</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>LITERATURE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>LITERATURE</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>PHYSICS</t>
         </is>
       </c>
     </row>
@@ -1122,35 +1122,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Brake,  William Walker</t>
+          <t>Brodersen,  Sonja Grace</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89 - 99</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>CONTINUING JAPANESE</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ENGINEERING STUDIES</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -1160,35 +1160,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Brennan,  Emma Grace</t>
+          <t>Bromhead,  Jack Alan</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>66 - 76</t>
+          <t>75 - 85</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
     </row>
@@ -1198,35 +1198,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Brinkley,  Joanna Claire</t>
+          <t>Burns,  Laura Catherine</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>72 - 82</t>
+          <t>89 - 99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DESIGN &amp; EMERGING TECHNOLOGIES</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>FURTHER MATHEMATICS</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
     </row>
@@ -1236,35 +1236,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Brown,  Makayla Grace</t>
+          <t>Bush,  Christopher James</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>58 - 68</t>
+          <t>60 - 70</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>HOSPITALITY</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
+          <t>PHYSICS</t>
         </is>
       </c>
     </row>
@@ -1274,35 +1274,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Buckman,  Danielle Monet</t>
+          <t>Cadogan-Cowper,  Erin Kate</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>88 - 98</t>
+          <t>84 - 94</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>CONTINUING FRENCH</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>HOSPITALITY</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>BIOLOGY</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>CHEMISTRY</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>LITERATURE</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PHYSICS</t>
         </is>
       </c>
     </row>
@@ -1312,35 +1312,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Canadell,  Jordi Gabriel</t>
+          <t>Cao,  Natalie</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>72 - 82</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BEGINNING SPANISH</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PHILOSOPHY</t>
+          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -1350,15 +1350,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Carroll,  Timothy Bryan</t>
+          <t>Chapple,  Marlo</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>56 - 66</t>
+          <t>75 - 85</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1388,35 +1388,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Castle,  Olivia Ailsa</t>
+          <t>Charlton,  Ben John</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>88 - 98</t>
+          <t>84 - 94</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>MODERN HISTORY</t>
+          <t>DIGITAL TECHNOLOGIES</t>
         </is>
       </c>
     </row>
@@ -1426,35 +1426,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chan,  Shun-Chit</t>
+          <t>Chen,  Samuel Rong Song</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>49 - 59</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>SPECIALIST METHODS</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
     </row>
@@ -1464,35 +1464,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Charlton,  James David</t>
+          <t>Cheng,  Callum Ching-Him</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>89 - 99</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ENGINEERING STUDIES</t>
+          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ROBOTICS AND MECHATRONICS</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -1502,35 +1502,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cheung,  Michael Tze Wing</t>
+          <t>Christoffelsz,  Lara Louise</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>73 - 83</t>
+          <t>48 - 58</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ENGLISH / LITERATURE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>BUSINESS</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
     </row>
@@ -1540,35 +1540,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chung,  Anna Yufu Jasmine Williams</t>
+          <t>Chua,  Bethany Jade</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>89 - 99</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>CONTINUING JAPANESE</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>MODERN HISTORY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -1578,35 +1578,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Clarke,  Emily Sarah</t>
+          <t>Clogstoun,  Sophia Lily</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>84 - 94</t>
+          <t>52 - 62</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ANCIENT HISTORY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CONTINUING JAPANESE</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>MODERN HISTORY</t>
+          <t>VISUAL ARTS</t>
         </is>
       </c>
     </row>
@@ -1616,35 +1616,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Clements,  Hayden Pierre</t>
+          <t>Coghlan-Smith,  Harper May</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>76 - 86</t>
+          <t>89 - 99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CONTINUING FRENCH</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>SPECIALIST METHODS</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>DIGITAL TECHNOLOGIES</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
     </row>
@@ -1654,35 +1654,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Colvin,  Cameron Grace</t>
+          <t>Coram,  Benjamin Anthony</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>83 - 93</t>
+          <t>78 - 88</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ANCIENT HISTORY</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>MEDIA</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>LITERATURE</t>
         </is>
       </c>
     </row>
@@ -1692,30 +1692,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cox,  Elyse Audrey</t>
+          <t>Costello,  Amelie Jade</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>77 - 87</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>PSYCHOLOGY</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>GLOBAL STUDIES</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1730,35 +1730,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Coyles,  Jade Natalie</t>
+          <t>Crabb,  Nikita reinhardt</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>78 - 88</t>
+          <t>84 - 94</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>HOSPITALITY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>VISUAL ARTS</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
     </row>
@@ -1768,35 +1768,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>D'Ambrosio,  Domenico Antonio</t>
+          <t>Daley,  Hannah Jayne</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>51 - 61</t>
+          <t>84 - 94</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>DESIGN &amp; GRAPHICS</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DESIGN &amp; EMERGING TECHNOLOGIES</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Daly,  Kate Bridget</t>
+          <t>Davis,  Ashlyn Rae</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1819,22 +1819,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
+          <t>DESIGN AND TEXTILES</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>PSYCHOLOGY</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>LEGAL STUDIES</t>
         </is>
       </c>
     </row>
@@ -1844,15 +1844,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Davies,  Olivia Alison Grace</t>
+          <t>Davis,  Honour Isabella</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>44 - 54</t>
+          <t>78 - 88</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ANCIENT HISTORY</t>
+          <t>BUSINESS</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1882,35 +1882,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Depta,  Hannah Embery</t>
+          <t>Do,  Andrew Thanh</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>56 - 66</t>
+          <t>75 - 85</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PHILOSOPHY</t>
+          <t>BUSINESS</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ANCIENT HISTORY</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
     </row>
@@ -1920,30 +1920,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Doherty,  Ryan Glenn</t>
+          <t>Do,  Jessica Delta</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>56 - 66</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ENGINEERING STUDIES</t>
+          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Domazet,  Isabella Grace</t>
+          <t>Duan,  Ryan</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1971,22 +1971,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ENGLISH / LITERATURE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
     </row>
@@ -1996,35 +1996,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dow,  Amy Rose</t>
+          <t>Duncan,  Charlotte Grace</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>87 - 97</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>MATHEMATICAL METHODS</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>LITERATURE</t>
         </is>
       </c>
     </row>
@@ -2034,35 +2034,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Downey,  April Margaret</t>
+          <t>Dunne,  Ryan Peter</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>64 - 74</t>
+          <t>82 - 92</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>DIGITAL TECHNOLOGIES</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ECONOMICS</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>BUSINESS</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>LEGAL STUDIES</t>
         </is>
       </c>
     </row>
@@ -2072,35 +2072,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dyne,  Eleanor Kate</t>
+          <t>Durnell,  Callum Richard</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>71 - 81</t>
+          <t>54 - 64</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -2110,15 +2110,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ewens,  Ruby Catherine</t>
+          <t>Dwight,  Erica Iris</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>64 - 74</t>
+          <t>67 - 77</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2128,17 +2128,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
     </row>
@@ -2148,35 +2148,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ewer,  Danielle Jade</t>
+          <t>Ellis,  Aubrey James</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>51 - 61</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>EXERCISE SCIENCE</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>SPECIALIST MATHEMATICS</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>LITERATURE</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>CONTINUING FRENCH</t>
+          <t>BUSINESS</t>
         </is>
       </c>
     </row>
@@ -2186,35 +2186,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Finnigan,  Oliver John</t>
+          <t>Emelifeonwu,  Monique Ifeoma</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>58 - 68</t>
+          <t>59 - 69</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ENGINEERING STUDIES</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PHOTOGRAPHY</t>
+          <t>DESIGN AND TEXTILES</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>BUSINESS</t>
         </is>
       </c>
     </row>
@@ -2224,20 +2224,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Foster Wright,  Taira Leiana Estelle</t>
+          <t>Espeland,  Lara Caitlin</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>70 - 80</t>
+          <t>85 - 95</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2247,12 +2247,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>HOSPITALITY</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
     </row>
@@ -2262,11 +2262,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Gardiner,  Ainsley Jane</t>
+          <t>Evans,  Olivia Grace</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2275,22 +2275,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>CHEMISTRY</t>
-        </is>
-      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
     </row>
@@ -2300,35 +2300,35 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Gardiner,  Connie Beth</t>
+          <t>Ewer,  Thomas Michael</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>85 - 95</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>SPECIALIST METHODS</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>PHYSICS</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>SPECIALIST MATHEMATICS</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>LITERATURE</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>PHYSICS</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -2338,35 +2338,35 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gates,  Matthew James</t>
+          <t>Exell,  Nea Rose</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>88 - 98</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CONTINUING FRENCH</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -2376,35 +2376,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Georgalis,  Evangelista Joanna</t>
+          <t>Farrar,  Mattia Carrie</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>49 - 59</t>
+          <t>81 - 91</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>HOSPITALITY</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>DESIGN &amp; GRAPHICS</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -2414,35 +2414,35 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Goodman,  Rory Arthur</t>
+          <t>Fleming,  Jessica Kate</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>83 - 93</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MODERN HISTORY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>PHYSICS</t>
         </is>
       </c>
     </row>
@@ -2452,15 +2452,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Gordon,  Indiana Tempe</t>
+          <t>Fleming,  Lauren May</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>83 - 93</t>
+          <t>73 - 83</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2470,17 +2470,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>VISUAL ARTS</t>
+          <t>PHOTOGRAPHY</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PHILOSOPHY</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
     </row>
@@ -2490,35 +2490,35 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Graham,  Patrick John</t>
+          <t>Forster,  Robin Michael</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>77 - 87</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>DRAMA</t>
         </is>
       </c>
     </row>
@@ -2528,35 +2528,35 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Green,  Jemima Sumiko</t>
+          <t>Franks,  Darcy Lee</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>83 - 93</t>
+          <t>82 - 92</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ENGLISH / LITERATURE</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CONTINUING JAPANESE</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>FURTHER MATHEMATICS</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
     </row>
@@ -2566,35 +2566,35 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Grieves,  George Oscar</t>
+          <t>Freemantle,  Alicia Charlotte</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>86 - 96</t>
+          <t>75 - 85</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>ANCIENT HISTORY</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
     </row>
@@ -2604,20 +2604,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Guthrie,  Michael William</t>
+          <t>Gatzen-O'Keefe,  Severin Arthur</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>82 - 92</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2627,12 +2627,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
     </row>
@@ -2642,35 +2642,35 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Harlum,  Elizabeth Clare</t>
+          <t>Gellatly-Bigwood,  Heather Lian</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>67 - 77</t>
+          <t>53 - 63</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>VISUAL ARTS</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
     </row>
@@ -2680,35 +2680,35 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Harris,  Brianna Charlotte</t>
+          <t>Genero,  Tomas Michael</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>84 - 94</t>
+          <t>54 - 64</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CONTINUING JAPANESE</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
+          <t>CONTINUING CHINESE</t>
         </is>
       </c>
     </row>
@@ -2718,35 +2718,35 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hart,  Jacob Rikard</t>
+          <t>Gibson,  Matthew</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>76 - 86</t>
+          <t>59 - 69</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>DIGITAL TECHNOLOGIES</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>ROBOTICS AND MECHATRONICS</t>
         </is>
       </c>
     </row>
@@ -2756,35 +2756,35 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hearn,  Louis Bonamy</t>
+          <t>Gilhotra,  Mahima</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>84 - 94</t>
+          <t>80 - 90</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
     </row>
@@ -2794,35 +2794,35 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hippit,  Jackson Reginald</t>
+          <t>Gill,  Whitney Monique</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>66 - 76</t>
+          <t>55 - 65</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>BUSINESS</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
     </row>
@@ -2832,35 +2832,35 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hoang,  William Nguyen</t>
+          <t>Gopu,  Justin Reddy</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>73 - 83</t>
+          <t>89 - 99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>SPECIALIST METHODS</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>CHEMISTRY</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>PHYSICS</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -2870,35 +2870,35 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hogg,  Joshua David</t>
+          <t>Gordon,  Alexander James</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>60 - 70</t>
+          <t>67 - 77</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
     </row>
@@ -2908,35 +2908,35 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Holmik,  Jadyn Tyler</t>
+          <t>Green,  Madeleine Beatrice</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>60 - 70</t>
+          <t>44 - 54</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DRAMA</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>CONTINUING JAPANESE</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
     </row>
@@ -2946,35 +2946,35 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Holt,  Madeleine Elsie</t>
+          <t>Gregory,  William Alastair</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>83 - 93</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>FURTHER MATHEMATICS</t>
+          <t>ANCIENT HISTORY</t>
         </is>
       </c>
     </row>
@@ -2984,35 +2984,35 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hombsch,  Olivia Meg</t>
+          <t>Gunnell,  Lani Hope</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>65 - 75</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MODERN HISTORY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -3022,15 +3022,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Huang,  Oscar Yu Bo</t>
+          <t>Gunnell,  Thomas Jude</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>53 - 63</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3040,17 +3040,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
+          <t>DRAMA</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -3060,35 +3060,35 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Huynh,  Alexander Huy Anh</t>
+          <t>Han,  Daniel</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>78 - 88</t>
+          <t>65 - 75</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>SPECIALIST METHODS</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ENGINEERING STUDIES</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>PHYSICS</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
           <t>SPECIALIST MATHEMATICS</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>LITERATURE</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>ECONOMICS</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>DIGITAL TECHNOLOGIES</t>
         </is>
       </c>
     </row>
@@ -3098,15 +3098,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Imhoff,  Zara Lee</t>
+          <t>Hardy,  Hannah Kate</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>89 - 99</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
     </row>
@@ -3136,11 +3136,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ipalawatte,  Sujan Shaun</t>
+          <t>Harouni,  Parsa</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>BIOLOGY</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>SPECIALIST METHODS</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>EXERCISE SCIENCE</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>SPECIALIST METHODS</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>SPECIALIST MATHEMATICS</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PHYSICS</t>
         </is>
       </c>
     </row>
@@ -3174,15 +3174,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Jeffery,  Orlando David</t>
+          <t>Hazlehurst,  Harvey Martyn</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>74 - 84</t>
+          <t>87 - 97</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3192,17 +3192,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>BIOLOGY</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>CONTINUING FRENCH</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
     </row>
@@ -3212,35 +3212,35 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Jenkin,  Matthew Aidan</t>
+          <t>Heatley,  Benjamin Anthony</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>89 - 99</t>
+          <t>68 - 78</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Jiang,  Madeleine Leigh</t>
+          <t>Herring,  Lachlan John</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3268,17 +3268,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>MODERN HISTORY</t>
+          <t>DRAMA</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>VISUAL ARTS</t>
+          <t>PHOTOGRAPHY</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
     </row>
@@ -3288,35 +3288,35 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Johns,  Myles Edward</t>
+          <t>Hickey,  Olivia Claire</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>73 - 83</t>
+          <t>85 - 95</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ENGLISH / LITERATURE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
     </row>
@@ -3326,35 +3326,35 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Kalogeropoulos,  Alexa Nicoletta</t>
+          <t>Hines,  Jack Louis</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>81 - 91</t>
+          <t>82 - 92</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>VISUAL ARTS</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>PHILOSOPHY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
     </row>
@@ -3364,15 +3364,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Karotam,  Aaron James</t>
+          <t>Hobson,  Justine Alexandra</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>87 - 97</t>
+          <t>88 - 98</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3382,17 +3382,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>EXERCISE SCIENCE</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>CONTINUING CHINESE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -3402,35 +3402,35 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kearins,  Thomas Brian</t>
+          <t>Hood,  Christina Simone</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>62 - 72</t>
+          <t>85 - 95</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
+          <t>LITERATURE</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>MATHEMATICAL METHODS</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
           <t>EXERCISE SCIENCE</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>MATHEMATICAL METHODS</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>BIOLOGY</t>
         </is>
       </c>
     </row>
@@ -3440,35 +3440,35 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Kelly,  Oliver Garry</t>
+          <t>Hundy,  Thomas James</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>49 - 59</t>
+          <t>86 - 96</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MUSIC</t>
+          <t>DESIGN &amp; GRAPHICS</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>MODERN HISTORY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>VISUAL ARTS</t>
+          <t>ENGINEERING STUDIES</t>
         </is>
       </c>
     </row>
@@ -3478,35 +3478,35 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Kelly-Ebbeck,  Lily Mae</t>
+          <t>Janssens,  Stephen Thomas</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>89 - 99</t>
+          <t>70 - 80</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ENGLISH / LITERATURE</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>DRAMA</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
     </row>
@@ -3516,20 +3516,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kennedy,  Sophie Jean</t>
+          <t>Jayamaha,  Shanith Emil</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>48 - 58</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3539,12 +3539,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>BUSINESS</t>
         </is>
       </c>
     </row>
@@ -3554,20 +3554,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>King,  Noah Alexander</t>
+          <t>Johnson,  Caitlin Rebecca Marquardt</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>58 - 68</t>
+          <t>71 - 81</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>DIGITAL TECHNOLOGIES</t>
+          <t>CONTINUING JAPANESE</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
     </row>
@@ -3592,35 +3592,35 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>King,  William Rodon</t>
+          <t>Kataria,  Sanay</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>75 - 85</t>
+          <t>85 - 95</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ROBOTICS AND MECHATRONICS</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>DIGITAL TECHNOLOGIES</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>PHYSICS</t>
         </is>
       </c>
     </row>
@@ -3630,11 +3630,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Kirkegaard,  Angela Ruby</t>
+          <t>Kelleher-Cole,  Bridget Sage</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3643,22 +3643,22 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>ECONOMICS</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
     </row>
@@ -3668,30 +3668,30 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Kirkegaard,  Minette Louise</t>
+          <t>Kendall,  Claudia Isabelle</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>86 - 96</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>SPECIALIST METHODS</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>BIOLOGY</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3706,35 +3706,35 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Kroeger,  Max</t>
+          <t>Kennedy,  Molly Louise</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>68 - 78</t>
+          <t>86 - 96</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>DIGITAL TECHNOLOGIES</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
+          <t>VISUAL ARTS</t>
         </is>
       </c>
     </row>
@@ -3744,35 +3744,35 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Lang,  Toby Benjamin</t>
+          <t>Keogh,  Jack Samuel</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>86 - 96</t>
+          <t>62 - 72</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
     </row>
@@ -3782,35 +3782,35 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Langworthy,  Thomas John</t>
+          <t>Kidston,  Rose Margaret</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>56 - 66</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>VISUAL ARTS</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
     </row>
@@ -3820,35 +3820,35 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Lemon,  Max William</t>
+          <t>Kingston,  Joshua Ryan</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>72 - 82</t>
+          <t>86 - 96</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DESIGN &amp; EMERGING TECHNOLOGIES</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ENGINEERING STUDIES</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
+          <t>DRAMA</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -3858,35 +3858,35 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Lilley,  Caitlin Jade</t>
+          <t>Kluth,  Joshua Cameron</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>79 - 89</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CONTINUING JAPANESE</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>ENGINEERING STUDIES</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>MEDIA</t>
         </is>
       </c>
     </row>
@@ -3896,35 +3896,35 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Liu,  Conan</t>
+          <t>Knight,  James Alexander</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>73 - 83</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>PHOTOGRAPHY</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
           <t>PHYSICS</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -3934,35 +3934,35 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Lo Re,  Lilliana Rose</t>
+          <t>Kruger,  Campbell John</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>63 - 73</t>
+          <t>44 - 54</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
+          <t>DESIGN &amp; EMERGING TECHNOLOGIES</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>MATHEMATICAL METHODS</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>EXERCISE SCIENCE</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
           <t>BUSINESS</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>EXERCISE SCIENCE</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ECONOMICS</t>
         </is>
       </c>
     </row>
@@ -3972,35 +3972,35 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Lo,  Genevieve Greer</t>
+          <t>Kwiatkowski,  Clare</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>53 - 63</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ENGLISH / LITERATURE</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>PHOTOGRAPHY</t>
         </is>
       </c>
     </row>
@@ -4010,35 +4010,35 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Lonsdale,  Harrison James</t>
+          <t>Landon,  Luke Patrick</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>75 - 85</t>
+          <t>46 - 56</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
+          <t>PHOTOGRAPHY</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>DESIGN &amp; GRAPHICS</t>
         </is>
       </c>
     </row>
@@ -4048,35 +4048,35 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Luo,  Ricky D</t>
+          <t>Le,  Khang Minh</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>83 - 93</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>SPECIALIST METHODS</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>SPECIALIST MATHEMATICS</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>SPECIALIST MATHEMATICS</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>PHYSICS</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>LITERATURE</t>
         </is>
       </c>
     </row>
@@ -4086,35 +4086,35 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MacLeod,  Siobhan Rosemary</t>
+          <t>Liu,  Aaron Dingrui</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>87 - 97</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ENGLISH / LITERATURE</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>CONTINUING JAPANESE</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>DESIGN &amp; GRAPHICS</t>
+          <t>CONTINUING CHINESE</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
     </row>
@@ -4124,20 +4124,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Macauley,  Samuel Philip</t>
+          <t>Lloyd,  Kaitlyn Roslin</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>71 - 81</t>
+          <t>83 - 93</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>DIGITAL TECHNOLOGIES</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4147,12 +4147,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>FURTHER MATHEMATICS</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
     </row>
@@ -4162,20 +4162,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Maheshwari,  Shrey</t>
+          <t>Lloyd,  Sam John</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>77 - 87</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4185,12 +4185,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>LITERATURE</t>
         </is>
       </c>
     </row>
@@ -4200,25 +4200,25 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mai,  Anna Hong</t>
+          <t>Lupton,  Camilla Estelle</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>81 - 91</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
+          <t>SPECIALIST METHODS</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4238,35 +4238,35 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Malouf,  Olivia Erna Howell</t>
+          <t>Ly,  Tim Guan</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>71 - 81</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>MUSIC</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
     </row>
@@ -4276,35 +4276,35 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mangalathu Mohan,  Vignesh</t>
+          <t>Macdonald,  Darcy Jack</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>65 - 75</t>
+          <t>88 - 98</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
     </row>
@@ -4314,20 +4314,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Martin,  Cara Alyse</t>
+          <t>Madden,  Yasmine Isabel Lea</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>86 - 96</t>
+          <t>84 - 94</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4337,12 +4337,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
     </row>
@@ -4352,35 +4352,35 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Maude,  Hannah Elisabeth</t>
+          <t>Maguire,  Neve Beatrice</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>78 - 88</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
+          <t>PHILOSOPHY</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>DESIGN &amp; GRAPHICS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
+          <t>GLOBAL STUDIES</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
           <t>PSYCHOLOGY</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
     </row>
@@ -4390,35 +4390,35 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Mazurkiewicz,  Eve Scarlett</t>
+          <t>McAleer,  Thomas John</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>48 - 58</t>
+          <t>72 - 82</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>DRAMA</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>VISUAL ARTS</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
     </row>
@@ -4428,35 +4428,35 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>McCallum,  Jack Alexander</t>
+          <t>McCormack,  Lachlan Jack</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>76 - 86</t>
+          <t>77 - 87</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>PHOTOGRAPHY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>MEDIA</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>PHYSICS</t>
         </is>
       </c>
     </row>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>McColl,  Robert Newman</t>
+          <t>McKinney,  Samuel David</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -4479,22 +4479,22 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>CHEMISTRY</t>
-        </is>
-      </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>ENGINEERING STUDIES</t>
         </is>
       </c>
     </row>
@@ -4504,35 +4504,35 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>McDougall,  Erin Olivia</t>
+          <t>Mihaljevic,  Ellen Dawn</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>82 - 92</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>FURTHER MATHEMATICS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
     </row>
@@ -4542,35 +4542,35 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>McKinnon,  Mitchell Gregory</t>
+          <t>Miller,  Jacob  Robert</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>86 - 96</t>
+          <t>66 - 76</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>DIGITAL TECHNOLOGIES</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -4580,35 +4580,35 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>McNiven,  Jack David</t>
+          <t>Moore,  Felix John</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>69 - 79</t>
+          <t>78 - 88</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>DRAMA</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
     </row>
@@ -4618,35 +4618,35 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Morella,  Marino Anthony</t>
+          <t>Moore,  Saxon Peter</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>48 - 58</t>
+          <t>54 - 64</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>ANCIENT HISTORY</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>ENGINEERING STUDIES</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>DESIGN &amp; GRAPHICS</t>
         </is>
       </c>
     </row>
@@ -4656,20 +4656,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Morrison,  Isabelle Susanne</t>
+          <t>Munnaven,  Vikaash Raj</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>89 - 99</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4679,12 +4679,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>PHYSICS</t>
         </is>
       </c>
     </row>
@@ -4694,35 +4694,35 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Nguyen,  Helen Han</t>
+          <t>Munro,  Tyson William</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>65 - 75</t>
+          <t>70 - 80</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>BUSINESS</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -4732,35 +4732,35 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Nicholl,  Charlotte Pamela</t>
+          <t>Muthiah,  Vishnu Araavali</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>57 - 67</t>
+          <t>89 - 99</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
+          <t>SPECIALIST METHODS</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
           <t>BIOLOGY</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -4770,35 +4770,35 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Niisato,  Eri Bowen</t>
+          <t>Newton,  Elliott James</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>79 - 89</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MODERN HISTORY</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>MEDIA</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>CONTINUING JAPANESE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
     </row>
@@ -4808,25 +4808,25 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Notley,  Charlie Olena</t>
+          <t>Nguyen,  Christine Anh-Thu Vu</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>83 - 93</t>
+          <t>81 - 91</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>PHYSICS</t>
         </is>
       </c>
     </row>
@@ -4846,35 +4846,35 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Nutt,  Helena Rosemary</t>
+          <t>Nguyen,  Emily Thu</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>80 - 90</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>PHILOSOPHY</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -4884,35 +4884,35 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>O'Neil,  Aislin</t>
+          <t>Nguyen,  Jessica</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>72 - 82</t>
+          <t>71 - 81</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
     </row>
@@ -4922,35 +4922,35 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Panagoda,  Sachintha Adeesha</t>
+          <t>Ni,  Benjamin</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>89 - 99</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>BIOLOGY</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>CHEMISTRY</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>SPECIALIST MATHEMATICS</t>
-        </is>
-      </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>CONTINUING FRENCH</t>
+          <t>CONTINUING JAPANESE</t>
         </is>
       </c>
     </row>
@@ -4960,35 +4960,35 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Pantazetzis,  Stephen</t>
+          <t>Nicholson,  Georgia Marie</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>62 - 72</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>VISUAL ARTS</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
     </row>
@@ -4998,35 +4998,35 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Parkinson,  Jordan Alexandra</t>
+          <t>Nikolovski,  Aaren Benjamin</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>75 - 85</t>
+          <t>56 - 66</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>VISUAL ARTS</t>
+          <t>BUSINESS</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>PHYSICS</t>
         </is>
       </c>
     </row>
@@ -5036,11 +5036,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Passioura,  Phoebe Jane</t>
+          <t>Northcote,  James Arthur Stafford</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -5049,22 +5049,22 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
+          <t>LITERATURE</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>BIOLOGY</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>EXERCISE SCIENCE</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>PSYCHOLOGY</t>
         </is>
       </c>
     </row>
@@ -5074,35 +5074,35 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Perceval,  Jamie Alan</t>
+          <t>Noud,  William Robert</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>61 - 71</t>
+          <t>83 - 93</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FURTHER MATHEMATICS</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>CONTINUING JAPANESE</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>ENGINEERING STUDIES</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>MEDIA</t>
         </is>
       </c>
     </row>
@@ -5112,35 +5112,35 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Pham,  Duy</t>
+          <t>O'Halloran,  Phoebe Claire</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>85 - 95</t>
+          <t>48 - 58</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>DESIGN &amp; GRAPHICS</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
     </row>
@@ -5150,35 +5150,35 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Pike,  Cameron Anthony</t>
+          <t>O'Halloran,  Thomas William</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>58 - 68</t>
+          <t>49 - 59</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>DRAMA</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>MEDIA</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
+          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>ROBOTICS AND MECHATRONICS</t>
         </is>
       </c>
     </row>
@@ -5188,35 +5188,35 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Potter,  James Bertram</t>
+          <t>O'Rourke,  William Paul</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>51 - 61</t>
+          <t>49 - 59</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MODERN HISTORY</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>BEGINNING SPANISH</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
     </row>
@@ -5226,35 +5226,35 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Potter,  Margaret Joan</t>
+          <t>Pandya,  Harsh</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>78 - 88</t>
+          <t>55 - 65</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>MATHEMATICAL METHODS</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>MATHEMATICAL METHODS</t>
-        </is>
-      </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>DRAMA</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -5264,35 +5264,35 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Prime,  Jack William</t>
+          <t>Passlow,  Hannah Elizabeth</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>69 - 79</t>
+          <t>58 - 68</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ROBOTICS AND MECHATRONICS</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>DIGITAL TECHNOLOGIES</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>ENGINEERING STUDIES</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -5302,35 +5302,35 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Probyn,  Jonty Felix</t>
+          <t>Pfohl,  Emma Therese</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>51 - 61</t>
+          <t>73 - 83</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>CONTINUING FRENCH</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>DESIGN AND TEXTILES</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
     </row>
@@ -5340,15 +5340,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Purvis-Smith,  Brayden Riley</t>
+          <t>Phelps,  Mia Jessica Abbey</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>53 - 63</t>
+          <t>58 - 68</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5358,17 +5358,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>DESIGN &amp; EMERGING TECHNOLOGIES</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -5378,11 +5378,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Ranatunga,  Dinu Minrada</t>
+          <t>Phillips,  Eleanora Beth</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -5391,22 +5391,22 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>CONTINUING CHINESE</t>
+          <t>VISUAL ARTS</t>
         </is>
       </c>
     </row>
@@ -5416,35 +5416,35 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ranatunga,  Vidu Senith</t>
+          <t>Phommaseisy,  Sebastian La</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>87 - 97</t>
+          <t>67 - 77</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
+          <t>MATHEMATICAL METHODS</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>PHYSICS</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>ECONOMICS</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -5454,35 +5454,35 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Rankin,  Izaak William</t>
+          <t>Pilla,  Nikhil Tarun</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>89 - 99</t>
+          <t>87 - 97</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
+          <t>SPECIALIST MATHEMATICS</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
           <t>PHYSICS</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>SPECIALIST METHODS</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -5492,11 +5492,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Ravi,  Ananya</t>
+          <t>Priest-Willimott,  Tia Louise</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -5505,22 +5505,22 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>DRAMA</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
     </row>
@@ -5530,35 +5530,35 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Reid,  Lachlan William</t>
+          <t>Rajen,  Jye</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>68 - 78</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
     </row>
@@ -5568,35 +5568,35 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ren,  Miranda Yitong</t>
+          <t>Reardon,  Alina Lakshmi</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>71 - 81</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>CONTINUING CHINESE</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>BUSINESS</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
     </row>
@@ -5606,35 +5606,35 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Ritchie,  Olivia Lorraine</t>
+          <t>Richan,  Angelina</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>66 - 76</t>
+          <t>44 - 54</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>EXERCISE SCIENCE</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
           <t>PSYCHOLOGY</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>LEGAL STUDIES</t>
         </is>
       </c>
     </row>
@@ -5644,35 +5644,35 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Robards,  Ethan Luke</t>
+          <t>Richards,  Alyssa Natasha</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>62 - 72</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
     </row>
@@ -5682,35 +5682,35 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Roberts,  Samuel</t>
+          <t>Riley,  Anastasia Charlotte</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>79 - 89</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>CONTINUING JAPANESE</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>PHILOSOPHY</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>DESIGN AND TEXTILES</t>
         </is>
       </c>
     </row>
@@ -5720,35 +5720,35 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Robertson,  Angus Cain</t>
+          <t>Rolfe,  Sienna Bernadette</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>77 - 87</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
+          <t>DIGITAL TECHNOLOGIES</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>DESIGN AND TEXTILES</t>
         </is>
       </c>
     </row>
@@ -5758,35 +5758,35 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Rogalewicz,  Mathew Anthony</t>
+          <t>Rowley,  Lucas Ashleigh</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>62 - 72</t>
+          <t>89 - 99</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>HOSPITALITY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>DRAMA</t>
         </is>
       </c>
     </row>
@@ -5796,35 +5796,35 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Russell,  Megan Kate</t>
+          <t>Rushby,  Siobhan Aimee</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>86 - 96</t>
+          <t>73 - 83</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>MEDIA</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>VISUAL ARTS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -5834,35 +5834,35 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sambridge,  Isobel Anne</t>
+          <t>Russell,  Oliver Jet</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>88 - 98</t>
+          <t>59 - 69</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>DRAMA</t>
+          <t>PHOTOGRAPHY</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>MUSIC</t>
+          <t>BUSINESS</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -5872,35 +5872,35 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Scott,  Benjamin Jacob</t>
+          <t>Satsia,  Maya Maria</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>84 - 94</t>
+          <t>82 - 92</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -5910,35 +5910,35 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Scott,  Elodie Grace</t>
+          <t>Schofield,  Alexander James</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>88 - 98</t>
+          <t>48 - 58</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>MEDIA</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>BUSINESS</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -5948,35 +5948,35 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Senti,  Mia Clarice</t>
+          <t>Schroder,  Jessica Jade</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>77 - 87</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>CONTINUING JAPANESE</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>VISUAL ARTS</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>DESIGN &amp; GRAPHICS</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -5986,35 +5986,35 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Seymour,  Olivia Josephine</t>
+          <t>Seddon,  William Thomas</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>69 - 79</t>
+          <t>77 - 87</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>ENGINEERING STUDIES</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
+          <t>DESIGN &amp; EMERGING TECHNOLOGIES</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
     </row>
@@ -6024,30 +6024,30 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Shaw,  Kiara Jade</t>
+          <t>Sellars,  Abigail Louise</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>76 - 86</t>
+          <t>70 - 80</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>BUSINESS</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6062,35 +6062,35 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Siu,  Kenney</t>
+          <t>Shand,  Meagan Jean</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>84 - 94</t>
+          <t>72 - 82</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>BUSINESS</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
     </row>
@@ -6100,35 +6100,35 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Slater,  Scarlett Grace</t>
+          <t>Sharma,  Callum Harry</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>52 - 62</t>
+          <t>67 - 77</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>BUSINESS</t>
         </is>
       </c>
     </row>
@@ -6138,35 +6138,35 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Smith,  Tahlya Cordellia</t>
+          <t>Sheldon,  Jack Clancy</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>63 - 73</t>
+          <t>82 - 92</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>DESIGN &amp; GRAPHICS</t>
+          <t>BEGINNING SPANISH</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>FURTHER MATHEMATICS</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>DRAMA</t>
         </is>
       </c>
     </row>
@@ -6176,35 +6176,35 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Stannard,  Emma Robyn</t>
+          <t>Shepherd,  Jake Alec</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>87 - 97</t>
+          <t>47 - 57</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CONTINUING CHINESE</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>BUSINESS</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -6214,35 +6214,35 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Stiffle,  Natalie Bennett</t>
+          <t>Shevchenko,  Talia Lee</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>68 - 78</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CONTINUING FRENCH</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
     </row>
@@ -6252,35 +6252,35 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Stocks,  David Robert</t>
+          <t>Singhabahu,  Vidun Nethvin</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>61 - 71</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>DIGITAL TECHNOLOGIES</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>DESIGN &amp; GRAPHICS</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>BUSINESS</t>
         </is>
       </c>
     </row>
@@ -6290,35 +6290,35 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Street,  Henry Owen</t>
+          <t>Smith,  Ava Elizabeth</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>89 - 99</t>
+          <t>73 - 83</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>DRAMA</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
     </row>
@@ -6328,35 +6328,35 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sun,  Jasmine Cheng-Hui</t>
+          <t>Smyth,  Astrid Eloise</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>87 - 97</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>CHEMISTRY</t>
-        </is>
-      </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>DESIGN &amp; GRAPHICS</t>
         </is>
       </c>
     </row>
@@ -6366,35 +6366,35 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Tay,  Ethan Henry</t>
+          <t>Snare,  Charlotte Ella</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>87 - 97</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>VISUAL ARTS</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
     </row>
@@ -6404,35 +6404,35 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Terry,  Cooper Stuart</t>
+          <t>Staughton,  Athena Grace</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>85 - 95</t>
+          <t>86 - 96</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
+          <t>PSYCHOLOGY</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>SPECIALIST METHODS</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>ENGLISH / LITERATURE</t>
-        </is>
-      </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
     </row>
@@ -6442,15 +6442,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Thorp,  Joanna Julia</t>
+          <t>Surman-Schmidt,  Yasmin Sofia</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>88 - 98</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6460,17 +6460,17 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
+          <t>GLOBAL STUDIES</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
           <t>BIOLOGY</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>CHEMISTRY</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>SPECIALIST METHODS</t>
         </is>
       </c>
     </row>
@@ -6480,35 +6480,35 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Toscan,  Ethan Alexander</t>
+          <t>Taylor,  Grace April</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>70 - 80</t>
+          <t>85 - 95</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>DESIGN &amp; EMERGING TECHNOLOGIES</t>
+          <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>MATHEMATICAL APPLICATIONS</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Vardy,  Hannah Louise</t>
+          <t>Tewari,  Harry</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -6531,22 +6531,22 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
     </row>
@@ -6556,15 +6556,15 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Vivian,  Tahnee Helene</t>
+          <t>Thumma,  Amulya Reddy</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>88 - 98</t>
+          <t>89 - 99</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6574,17 +6574,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>BIOLOGY</t>
-        </is>
-      </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
     </row>
@@ -6594,35 +6594,35 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Vlatkovic,  Sonia Lee</t>
+          <t>Van Gorp,  Tamsin Ida</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>50 - 60</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ENGLISH / LITERATURE</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>MODERN HISTORY</t>
+          <t>DESIGN AND TEXTILES</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>MUSIC</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
     </row>
@@ -6632,7 +6632,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Walker,  Angus James</t>
+          <t>Volker Smith,  Lucia Margaret Ellen</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -6645,22 +6645,22 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>EXERCISE SCIENCE</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
     </row>
@@ -6670,35 +6670,35 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Wallace-Richards,  Thomas Gordon</t>
+          <t>Waddell-Wood,  Rose Julia</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>89 - 99</t>
+          <t>85 - 95</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>MODERN HISTORY</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>CONTINUING FRENCH</t>
+          <t>GLOBAL STUDIES</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
     </row>
@@ -6708,35 +6708,35 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Warren,  Thomas Reaburn Reynolds</t>
+          <t>Walker,  Patrick Peter</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>71 - 81</t>
+          <t>53 - 63</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
+          <t>MATHEMATICAL APPLICATIONS</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>BUSINESS</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
           <t>MODERN HISTORY</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>GLOBAL STUDIES</t>
         </is>
       </c>
     </row>
@@ -6746,25 +6746,25 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Wells,  Vincenza</t>
+          <t>Wang,  Matthew</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>83 - 93</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>DIGITAL TECHNOLOGIES</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
     </row>
@@ -6784,35 +6784,35 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Wilson,  Joseph Patrick</t>
+          <t>Weerasooriya,  Amali</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>86 - 96</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>PHILOSOPHY</t>
         </is>
       </c>
     </row>
@@ -6822,35 +6822,35 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Wilson,  Olivia Anne</t>
+          <t>Wildie,  Tayte Henri</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>83 - 93</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>MODERN HISTORY</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>LITERATURE</t>
         </is>
       </c>
     </row>
@@ -6860,35 +6860,35 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Windeyer,  Hugh Thomas</t>
+          <t>Williams,  Alison Catherine</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>70 - 80</t>
+          <t>76 - 86</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>LEGAL STUDIES</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
     </row>
@@ -6898,35 +6898,35 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Winter,  Oliver Liam</t>
+          <t>Wills,  Andrew Alexander</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>65 - 75</t>
+          <t>59 - 69</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>CONTINUING JAPANESE</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>GLOBAL STUDIES</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
     </row>
@@ -6936,35 +6936,35 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Wise,  Ellia Jae</t>
+          <t>Wiseman,  Darcy Robert</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>72 - 82</t>
+          <t>90 - 100</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>VISUAL ARTS</t>
+          <t>PHILOSOPHY</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>LITERATURE</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>PSYCHOLOGY</t>
+          <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
     </row>
@@ -6974,35 +6974,35 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Woods,  Christopher John</t>
+          <t>Wood,  Katie Elizabeth</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>86 - 96</t>
+          <t>85 - 95</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SPECIALIST METHODS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>DESIGN &amp; GRAPHICS</t>
+          <t>LEGAL STUDIES</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>DIGITAL TECHNOLOGIES</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>ENGINEERING STUDIES</t>
+          <t>MODERN HISTORY</t>
         </is>
       </c>
     </row>
@@ -7012,25 +7012,25 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Worthaisong,  Emma Tidaa</t>
+          <t>Wyman,  Alexander John</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>88 - 98</t>
+          <t>60 - 70</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>CONTINUING JAPANESE</t>
+          <t>BUSINESS</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -7050,35 +7050,35 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Wright,  Oscar Wallace</t>
+          <t>Yip,  Michael Kai-Chung</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>75 - 85</t>
+          <t>80 - 90</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>SPECIALIST METHODS</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>DIGITAL TECHNOLOGIES</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
     </row>
@@ -7088,35 +7088,35 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Yang,  Nathan Tianyu</t>
+          <t>Young,  Mathew Llewellyn</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>70 - 80</t>
+          <t>63 - 73</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>MATHEMATICAL METHODS</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>ENGINEERING STUDIES</t>
+          <t>BUSINESS</t>
         </is>
       </c>
     </row>
@@ -7126,35 +7126,35 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Yarlagadda,  Rahul</t>
+          <t>Young,  Miranda Helen</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>85 - 95</t>
+          <t>61 - 71</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>CONTINUING JAPANESE</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>EXERCISE SCIENCE</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>DESIGN AND TEXTILES</t>
         </is>
       </c>
     </row>
@@ -7164,35 +7164,35 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Zerger,  Oscar Wladyslaw</t>
+          <t>Zentelis-Wilde,  Finn Henry</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>86 - 96</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
+          <t>SPECIALIST METHODS</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>BIOLOGY</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>SPECIALIST METHODS</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>LITERATURE</t>
         </is>
       </c>
     </row>
@@ -7202,25 +7202,25 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Zheng,  Yang</t>
+          <t>Ziaee,  Mahla</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>90 - 100</t>
+          <t>49 - 59</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>PSYCHOLOGY</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>SPECIALIST MATHEMATICS</t>
+          <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">

--- a/downloads/atar_estimates.xlsx
+++ b/downloads/atar_estimates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,40 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Student_Id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Full_Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>ATAR_Prediction</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Predicted_Range</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Major1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Major2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Major3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Minor</t>
         </is>
@@ -476,33 +481,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>0367276</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Abeyrathne,  Akila Induwara</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>95</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>88 - 98</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
@@ -514,33 +524,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>0521791</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Alexander,  Rohan Jeffrey</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>56</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>49 - 59</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>MUSIC</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -552,33 +567,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>0308379</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Allen,  Felix James</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>89</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>82 - 92</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
@@ -590,33 +610,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>8210968</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Athanasiou,  Zoe Mia</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>70</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>63 - 73</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
@@ -628,33 +653,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>0071738</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Atluri,  Siddhardh</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>99</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -666,33 +696,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>0248640</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Babic,  Latisha</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>97</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
@@ -704,33 +739,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>0348593</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Bailey,  Oliver Charlie</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>88</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>81 - 91</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>DRAMA</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>VISUAL ARTS</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>DIGITAL TECHNOLOGIES</t>
         </is>
@@ -742,33 +782,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>0482655</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Baird,  Hamish Alexander</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>65</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>58 - 68</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
@@ -780,33 +825,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>8110660</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Barbatano,  Thomas Patrick</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>83</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>76 - 86</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>DIGITAL TECHNOLOGIES</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
@@ -818,33 +868,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>8600235</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Bennett,  Mason Claude</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>59</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>52 - 62</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>ANCIENT HISTORY</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -856,33 +911,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>8190749</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Berichon,  Amelie Kay</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>63</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>56 - 66</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>DESIGN &amp; GRAPHICS</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>VISUAL ARTS</t>
         </is>
@@ -894,33 +954,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>0653572</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Birmingham,  Emma Jayne</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>77</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>70 - 80</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>HOSPITALITY</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
@@ -932,33 +997,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>0622062</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Black,  Samantha Jane</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>59</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>52 - 62</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
@@ -970,33 +1040,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>0427554</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Blake,  Ryan William</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>79</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>72 - 82</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -1008,33 +1083,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>0408514</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Boshier,  Angus John</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>94</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>87 - 97</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -1046,33 +1126,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>0497578</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Boyce,  Lyam John</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>96</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>89 - 99</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
@@ -1084,33 +1169,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>0357869</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Bradley,  Margaret Christine</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>88</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>81 - 91</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
@@ -1122,33 +1212,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>0427571</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Brodersen,  Sonja Grace</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>97</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>CONTINUING JAPANESE</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -1160,33 +1255,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>0357995</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Bromhead,  Jack Alan</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>82</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>75 - 85</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
@@ -1198,33 +1298,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>8190366</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Burns,  Laura Catherine</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>96</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>89 - 99</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
@@ -1236,33 +1341,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>8190407</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Bush,  Christopher James</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>67</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>60 - 70</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
@@ -1274,33 +1384,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>8420246</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Cadogan-Cowper,  Erin Kate</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>91</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>84 - 94</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>CONTINUING FRENCH</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>HOSPITALITY</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -1312,33 +1427,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>0347872</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Cao,  Natalie</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>99</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -1350,33 +1470,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>0248619</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Chapple,  Marlo</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>82</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>75 - 85</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -1388,33 +1513,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>8190797</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Charlton,  Ben John</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>91</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>84 - 94</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>DIGITAL TECHNOLOGIES</t>
         </is>
@@ -1426,33 +1556,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>8600227</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Chen,  Samuel Rong Song</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>98</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
@@ -1464,33 +1599,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>8201093</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Cheng,  Callum Ching-Him</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>99</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -1502,33 +1642,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>8190563</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Christoffelsz,  Lara Louise</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>55</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>48 - 58</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
@@ -1540,33 +1685,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>8310524</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Chua,  Bethany Jade</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>99</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>CONTINUING JAPANESE</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -1578,33 +1728,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>0418859</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Clogstoun,  Sophia Lily</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>59</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>52 - 62</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>VISUAL ARTS</t>
         </is>
@@ -1616,33 +1771,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>0308125</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Coghlan-Smith,  Harper May</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>96</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>89 - 99</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -1654,33 +1814,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>0307954</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Coram,  Benjamin Anthony</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>85</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>78 - 88</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
@@ -1692,33 +1857,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>0357660</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Costello,  Amelie Jade</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>97</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
@@ -1730,33 +1900,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>0407719</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Crabb,  Nikita reinhardt</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>91</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>84 - 94</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>VISUAL ARTS</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
@@ -1768,33 +1943,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>0497739</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>Daley,  Hannah Jayne</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>91</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>84 - 94</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
@@ -1806,33 +1986,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>0172353</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Davis,  Ashlyn Rae</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>88</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>81 - 91</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>DESIGN AND TEXTILES</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
@@ -1844,33 +2029,38 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>0418700</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Davis,  Honour Isabella</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>85</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>78 - 88</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
@@ -1882,33 +2072,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>8010641</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>Do,  Andrew Thanh</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>82</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>75 - 85</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
@@ -1920,33 +2115,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>8190390</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Do,  Jessica Delta</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>99</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -1958,33 +2158,38 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>0348012</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>Duan,  Ryan</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>87</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>80 - 90</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
@@ -1996,33 +2201,38 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>8600237</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>Duncan,  Charlotte Grace</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>94</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>87 - 97</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -2034,33 +2244,38 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>0714796</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>Dunne,  Ryan Peter</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>89</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>82 - 92</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>DIGITAL TECHNOLOGIES</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
@@ -2072,33 +2287,38 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>0621867</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Durnell,  Callum Richard</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>61</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>54 - 64</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -2110,33 +2330,38 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>0248658</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>Dwight,  Erica Iris</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>74</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>67 - 77</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
@@ -2148,33 +2373,38 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>8390520</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>Ellis,  Aubrey James</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>58</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>51 - 61</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
@@ -2186,33 +2416,38 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>0348701</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>Emelifeonwu,  Monique Ifeoma</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>66</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>59 - 69</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>DESIGN AND TEXTILES</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
@@ -2224,33 +2459,38 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>0366824</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Espeland,  Lara Caitlin</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>92</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>85 - 95</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G48" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
           <t>HOSPITALITY</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
@@ -2262,33 +2502,38 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>0418595</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>Evans,  Olivia Grace</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>98</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
@@ -2300,33 +2545,38 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>8190371</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>Ewer,  Thomas Michael</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>92</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>85 - 95</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
@@ -2338,33 +2588,38 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>0407976</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>Exell,  Nea Rose</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>98</v>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G51" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -2376,33 +2631,38 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>0308182</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>Farrar,  Mattia Carrie</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>88</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>81 - 91</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>DESIGN &amp; GRAPHICS</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -2414,33 +2674,38 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>0402491</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>Fleming,  Jessica Kate</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>99</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
@@ -2452,33 +2717,38 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>0438161</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>Fleming,  Lauren May</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>80</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>73 - 83</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>PHOTOGRAPHY</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
@@ -2490,33 +2760,38 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>0726399</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>Forster,  Robin Michael</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>84</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>77 - 87</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>DRAMA</t>
         </is>
@@ -2528,33 +2803,38 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>8110667</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>Franks,  Darcy Lee</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>89</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>82 - 92</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
@@ -2566,33 +2846,38 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>0342474</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>Freemantle,  Alicia Charlotte</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>82</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>75 - 85</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G57" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
@@ -2604,33 +2889,38 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>0164980</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>Gatzen-O'Keefe,  Severin Arthur</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>89</v>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>82 - 92</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
@@ -2642,33 +2932,38 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>8420229</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>Gellatly-Bigwood,  Heather Lian</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>60</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>53 - 63</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
@@ -2680,33 +2975,38 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>8370618</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>Genero,  Tomas Michael</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>61</v>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>54 - 64</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H60" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>CONTINUING CHINESE</t>
         </is>
@@ -2718,33 +3018,38 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>0384055</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>Gibson,  Matthew</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>66</v>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>59 - 69</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>DIGITAL TECHNOLOGIES</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>ROBOTICS AND MECHATRONICS</t>
         </is>
@@ -2756,33 +3061,38 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>8381226</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>Gilhotra,  Mahima</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>87</v>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>80 - 90</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
@@ -2794,33 +3104,38 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>0427630</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>Gill,  Whitney Monique</t>
         </is>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>62</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>55 - 65</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
@@ -2832,33 +3147,38 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>0637211</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>Gopu,  Justin Reddy</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>96</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>89 - 99</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
@@ -2870,33 +3190,38 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>8190748</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>Gordon,  Alexander James</t>
         </is>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>74</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>67 - 77</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G65" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
@@ -2908,33 +3233,38 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>8240612</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>Green,  Madeleine Beatrice</t>
         </is>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>51</v>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>44 - 54</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>CONTINUING JAPANESE</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
@@ -2946,33 +3276,38 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>8190657</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>Gregory,  William Alastair</t>
         </is>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>99</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>ANCIENT HISTORY</t>
         </is>
@@ -2984,33 +3319,38 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>0308123</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>Gunnell,  Lani Hope</t>
         </is>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>72</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>65 - 75</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -3022,33 +3362,38 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>0308122</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>Gunnell,  Thomas Jude</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>60</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>53 - 63</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>DRAMA</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -3060,33 +3405,38 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>0537953</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>Han,  Daniel</t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>72</v>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>65 - 75</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>ENGINEERING STUDIES</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
@@ -3098,33 +3448,38 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>0402466</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>Hardy,  Hannah Kate</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>98</v>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>CONTINUING FRENCH</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -3136,33 +3491,38 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>0418869</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>Harouni,  Parsa</t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>97</v>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -3174,33 +3534,38 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>8451190</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>Hazlehurst,  Harvey Martyn</t>
         </is>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>94</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>87 - 97</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
@@ -3212,33 +3577,38 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>0402470</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>Heatley,  Benjamin Anthony</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>75</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>68 - 78</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -3250,33 +3620,38 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>8190349</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>Herring,  Lachlan John</t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>95</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>88 - 98</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>DRAMA</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>PHOTOGRAPHY</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
@@ -3288,33 +3663,38 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>8190365</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>Hickey,  Olivia Claire</t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>92</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>85 - 95</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
@@ -3326,33 +3706,38 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>0342501</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>Hines,  Jack Louis</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>89</v>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>82 - 92</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G77" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
@@ -3364,33 +3749,38 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>0720539</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>Hobson,  Justine Alexandra</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>95</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>88 - 98</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -3402,33 +3792,38 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>0164982</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>Hood,  Christina Simone</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>92</v>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>85 - 95</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
@@ -3440,33 +3835,38 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>0342509</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>Hundy,  Thomas James</t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>93</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>86 - 96</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>DESIGN &amp; GRAPHICS</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G80" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>ENGINEERING STUDIES</t>
         </is>
@@ -3478,33 +3878,38 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>0407740</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>Janssens,  Stephen Thomas</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>77</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>70 - 80</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -3516,33 +3921,38 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>1014990</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>Jayamaha,  Shanith Emil</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>55</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>48 - 58</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
@@ -3554,33 +3964,38 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>0653564</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>Johnson,  Caitlin Rebecca Marquardt</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>78</v>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>71 - 81</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>CONTINUING JAPANESE</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G83" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
@@ -3592,33 +4007,38 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>4120295</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>Kataria,  Sanay</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>92</v>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>85 - 95</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
@@ -3630,33 +4050,38 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>0357674</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>Kelleher-Cole,  Bridget Sage</t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>98</v>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
@@ -3668,33 +4093,38 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>0191727</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>Kendall,  Claudia Isabelle</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>93</v>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>86 - 96</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -3706,33 +4136,38 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>8190374</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>Kennedy,  Molly Louise</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>93</v>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>86 - 96</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G87" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>VISUAL ARTS</t>
         </is>
@@ -3744,33 +4179,38 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>0286816</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>Keogh,  Jack Samuel</t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>69</v>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>62 - 72</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G88" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
@@ -3782,33 +4222,38 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>0308802</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>Kidston,  Rose Margaret</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>63</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>56 - 66</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>VISUAL ARTS</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
@@ -3820,33 +4265,38 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>0342497</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>Kingston,  Joshua Ryan</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>93</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>86 - 96</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>DRAMA</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -3858,33 +4308,38 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>0622031</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>Kluth,  Joshua Cameron</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>86</v>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>79 - 89</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>ENGINEERING STUDIES</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>MEDIA</t>
         </is>
@@ -3896,33 +4351,38 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>8190790</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>Knight,  James Alexander</t>
         </is>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>80</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>73 - 83</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>PHOTOGRAPHY</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>MEDIA</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
@@ -3934,33 +4394,38 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>8190565</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>Kruger,  Campbell John</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>51</v>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>44 - 54</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>DESIGN &amp; EMERGING TECHNOLOGIES</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
@@ -3972,33 +4437,38 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>0398715</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>Kwiatkowski,  Clare</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>60</v>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>53 - 63</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>PHOTOGRAPHY</t>
         </is>
@@ -4010,33 +4480,38 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>0622303</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>Landon,  Luke Patrick</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>53</v>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>46 - 56</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>PHOTOGRAPHY</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G95" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>DESIGN &amp; GRAPHICS</t>
         </is>
@@ -4048,33 +4523,38 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>0071704</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>Le,  Khang Minh</t>
         </is>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>90</v>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>83 - 93</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
@@ -4086,33 +4566,38 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>8190398</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>Liu,  Aaron Dingrui</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>99</v>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>CONTINUING CHINESE</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
@@ -4124,33 +4609,38 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>0358522</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>Lloyd,  Kaitlyn Roslin</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>90</v>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>83 - 93</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
@@ -4162,33 +4652,38 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>8190566</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>Lloyd,  Sam John</t>
         </is>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>84</v>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>77 - 87</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
@@ -4200,33 +4695,38 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>0407718</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>Lupton,  Camilla Estelle</t>
         </is>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>88</v>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>81 - 91</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -4238,33 +4738,38 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>8190376</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>Ly,  Tim Guan</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>78</v>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>71 - 81</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>MUSIC</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
@@ -4276,33 +4781,38 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>0637234</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>Macdonald,  Darcy Jack</t>
         </is>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>95</v>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>88 - 98</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
@@ -4314,33 +4824,38 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>0308154</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>Madden,  Yasmine Isabel Lea</t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>91</v>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>84 - 94</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
@@ -4352,33 +4867,38 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>0498131</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>Maguire,  Neve Beatrice</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>97</v>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>PHILOSOPHY</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G104" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
@@ -4390,33 +4910,38 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>8010640</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>McAleer,  Thomas John</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>79</v>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>72 - 82</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
@@ -4428,33 +4953,38 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>0357653</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>McCormack,  Lachlan Jack</t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>84</v>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>77 - 87</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G106" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
@@ -4466,33 +4996,38 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>8190379</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
           <t>McKinney,  Samuel David</t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>99</v>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F107" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>ENGINEERING STUDIES</t>
         </is>
@@ -4504,33 +5039,38 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>0446694</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
           <t>Mihaljevic,  Ellen Dawn</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>97</v>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F108" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -4542,33 +5082,38 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>0467360</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
           <t>Miller,  Jacob  Robert</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>73</v>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>66 - 76</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -4580,33 +5125,38 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>8351084</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>Moore,  Felix John</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>85</v>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>78 - 88</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G110" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
@@ -4618,33 +5168,38 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>8351085</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
           <t>Moore,  Saxon Peter</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>61</v>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>54 - 64</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F111" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
           <t>ANCIENT HISTORY</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>DESIGN &amp; GRAPHICS</t>
         </is>
@@ -4656,33 +5211,38 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>8381241</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>Munnaven,  Vikaash Raj</t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>96</v>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>89 - 99</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
@@ -4694,33 +5254,38 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>0521739</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>Munro,  Tyson William</t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>77</v>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>70 - 80</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -4732,33 +5297,38 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>8001047</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>Muthiah,  Vishnu Araavali</t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="D114" t="n">
         <v>96</v>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>89 - 99</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -4770,33 +5340,38 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>0497731</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
           <t>Newton,  Elliott James</t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>86</v>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>79 - 89</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>MEDIA</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H115" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
@@ -4808,33 +5383,38 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>8310539</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
           <t>Nguyen,  Christine Anh-Thu Vu</t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="D116" t="n">
         <v>88</v>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>81 - 91</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H116" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
@@ -4846,33 +5426,38 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>0191186</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>Nguyen,  Emily Thu</t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="D117" t="n">
         <v>99</v>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -4884,33 +5469,38 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>8020088</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>Nguyen,  Jessica</t>
         </is>
       </c>
-      <c r="C118" t="n">
+      <c r="D118" t="n">
         <v>78</v>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>71 - 81</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G118" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
@@ -4922,33 +5512,38 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>0357692</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>Ni,  Benjamin</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="D119" t="n">
         <v>96</v>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>89 - 99</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>CONTINUING JAPANESE</t>
         </is>
@@ -4960,33 +5555,38 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>8190384</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>Nicholson,  Georgia Marie</t>
         </is>
       </c>
-      <c r="C120" t="n">
+      <c r="D120" t="n">
         <v>69</v>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>62 - 72</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F120" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>VISUAL ARTS</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
@@ -4998,33 +5598,38 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
+          <t>8190385</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
           <t>Nikolovski,  Aaren Benjamin</t>
         </is>
       </c>
-      <c r="C121" t="n">
+      <c r="D121" t="n">
         <v>63</v>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>56 - 66</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H121" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
@@ -5036,33 +5641,38 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>8201116</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
           <t>Northcote,  James Arthur Stafford</t>
         </is>
       </c>
-      <c r="C122" t="n">
+      <c r="D122" t="n">
         <v>99</v>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -5074,33 +5684,38 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>0172296</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>Noud,  William Robert</t>
         </is>
       </c>
-      <c r="C123" t="n">
+      <c r="D123" t="n">
         <v>90</v>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>83 - 93</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>ENGINEERING STUDIES</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>MEDIA</t>
         </is>
@@ -5112,33 +5727,38 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>8451209</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
           <t>O'Halloran,  Phoebe Claire</t>
         </is>
       </c>
-      <c r="C124" t="n">
+      <c r="D124" t="n">
         <v>55</v>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>48 - 58</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F124" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>DESIGN &amp; GRAPHICS</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
@@ -5150,33 +5770,38 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
+          <t>8451208</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
           <t>O'Halloran,  Thomas William</t>
         </is>
       </c>
-      <c r="C125" t="n">
+      <c r="D125" t="n">
         <v>56</v>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>49 - 59</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F125" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>ROBOTICS AND MECHATRONICS</t>
         </is>
@@ -5188,33 +5813,38 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
+          <t>8201118</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
           <t>O'Rourke,  William Paul</t>
         </is>
       </c>
-      <c r="C126" t="n">
+      <c r="D126" t="n">
         <v>56</v>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>49 - 59</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>BEGINNING SPANISH</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H126" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
@@ -5226,33 +5856,38 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
+          <t>0248891</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
           <t>Pandya,  Harsh</t>
         </is>
       </c>
-      <c r="C127" t="n">
+      <c r="D127" t="n">
         <v>62</v>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>55 - 65</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -5264,33 +5899,38 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
+          <t>8000475</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
           <t>Passlow,  Hannah Elizabeth</t>
         </is>
       </c>
-      <c r="C128" t="n">
+      <c r="D128" t="n">
         <v>65</v>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>58 - 68</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -5302,33 +5942,38 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
+          <t>0191189</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
           <t>Pfohl,  Emma Therese</t>
         </is>
       </c>
-      <c r="C129" t="n">
+      <c r="D129" t="n">
         <v>80</v>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>73 - 83</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F129" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>DESIGN AND TEXTILES</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -5340,33 +5985,38 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
+          <t>0208891</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
           <t>Phelps,  Mia Jessica Abbey</t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="D130" t="n">
         <v>65</v>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>58 - 68</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -5378,33 +6028,38 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
+          <t>0342472</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
           <t>Phillips,  Eleanora Beth</t>
         </is>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>98</v>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>VISUAL ARTS</t>
         </is>
@@ -5416,33 +6071,38 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>0637227</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>Phommaseisy,  Sebastian La</t>
         </is>
       </c>
-      <c r="C132" t="n">
+      <c r="D132" t="n">
         <v>74</v>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>67 - 77</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -5454,33 +6114,38 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
+          <t>0427871</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
           <t>Pilla,  Nikhil Tarun</t>
         </is>
       </c>
-      <c r="C133" t="n">
+      <c r="D133" t="n">
         <v>94</v>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>87 - 97</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
@@ -5492,33 +6157,38 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
+          <t>8190388</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
           <t>Priest-Willimott,  Tia Louise</t>
         </is>
       </c>
-      <c r="C134" t="n">
+      <c r="D134" t="n">
         <v>98</v>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G134" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
           <t>DRAMA</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -5530,33 +6200,38 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
+          <t>0402379</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
           <t>Rajen,  Jye</t>
         </is>
       </c>
-      <c r="C135" t="n">
+      <c r="D135" t="n">
         <v>99</v>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
@@ -5568,33 +6243,38 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
+          <t>0427442</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
           <t>Reardon,  Alina Lakshmi</t>
         </is>
       </c>
-      <c r="C136" t="n">
+      <c r="D136" t="n">
         <v>78</v>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>71 - 81</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H136" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
@@ -5606,33 +6286,38 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
+          <t>1013255</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
           <t>Richan,  Angelina</t>
         </is>
       </c>
-      <c r="C137" t="n">
+      <c r="D137" t="n">
         <v>51</v>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>44 - 54</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G137" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
@@ -5644,33 +6329,38 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
+          <t>0411669</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
           <t>Richards,  Alyssa Natasha</t>
         </is>
       </c>
-      <c r="C138" t="n">
+      <c r="D138" t="n">
         <v>69</v>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>62 - 72</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
@@ -5682,33 +6372,38 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
+          <t>0407588</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
           <t>Riley,  Anastasia Charlotte</t>
         </is>
       </c>
-      <c r="C139" t="n">
+      <c r="D139" t="n">
         <v>98</v>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F139" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
           <t>CONTINUING JAPANESE</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>PHILOSOPHY</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>DESIGN AND TEXTILES</t>
         </is>
@@ -5720,33 +6415,38 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
+          <t>0068387</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
           <t>Rolfe,  Sienna Bernadette</t>
         </is>
       </c>
-      <c r="C140" t="n">
+      <c r="D140" t="n">
         <v>98</v>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>DIGITAL TECHNOLOGIES</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>DESIGN AND TEXTILES</t>
         </is>
@@ -5758,33 +6458,38 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>0383857</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
           <t>Rowley,  Lucas Ashleigh</t>
         </is>
       </c>
-      <c r="C141" t="n">
+      <c r="D141" t="n">
         <v>96</v>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>89 - 99</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F141" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>DRAMA</t>
         </is>
@@ -5796,33 +6501,38 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
+          <t>0071669</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
           <t>Rushby,  Siobhan Aimee</t>
         </is>
       </c>
-      <c r="C142" t="n">
+      <c r="D142" t="n">
         <v>80</v>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>73 - 83</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -5834,33 +6544,38 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
+          <t>0366833</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
           <t>Russell,  Oliver Jet</t>
         </is>
       </c>
-      <c r="C143" t="n">
+      <c r="D143" t="n">
         <v>66</v>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>59 - 69</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>PHOTOGRAPHY</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -5872,33 +6587,38 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
+          <t>8351095</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
           <t>Satsia,  Maya Maria</t>
         </is>
       </c>
-      <c r="C144" t="n">
+      <c r="D144" t="n">
         <v>89</v>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>82 - 92</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -5910,33 +6630,38 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
+          <t>8190389</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
           <t>Schofield,  Alexander James</t>
         </is>
       </c>
-      <c r="C145" t="n">
+      <c r="D145" t="n">
         <v>55</v>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>48 - 58</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>MEDIA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -5948,33 +6673,38 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
+          <t>0411666</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
           <t>Schroder,  Jessica Jade</t>
         </is>
       </c>
-      <c r="C146" t="n">
+      <c r="D146" t="n">
         <v>98</v>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>VISUAL ARTS</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="I146" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -5986,33 +6716,38 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
+          <t>0622100</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
           <t>Seddon,  William Thomas</t>
         </is>
       </c>
-      <c r="C147" t="n">
+      <c r="D147" t="n">
         <v>84</v>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>77 - 87</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>ENGINEERING STUDIES</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>DESIGN &amp; EMERGING TECHNOLOGIES</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="I147" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
@@ -6024,33 +6759,38 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
+          <t>0342555</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
           <t>Sellars,  Abigail Louise</t>
         </is>
       </c>
-      <c r="C148" t="n">
+      <c r="D148" t="n">
         <v>77</v>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>70 - 80</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="I148" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
@@ -6062,33 +6802,38 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
+          <t>8190792</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
           <t>Shand,  Meagan Jean</t>
         </is>
       </c>
-      <c r="C149" t="n">
+      <c r="D149" t="n">
         <v>79</v>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>72 - 82</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F149" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="I149" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
@@ -6100,33 +6845,38 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
+          <t>8190392</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
           <t>Sharma,  Callum Harry</t>
         </is>
       </c>
-      <c r="C150" t="n">
+      <c r="D150" t="n">
         <v>74</v>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>67 - 77</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H150" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
@@ -6138,33 +6888,38 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
+          <t>0446753</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
           <t>Sheldon,  Jack Clancy</t>
         </is>
       </c>
-      <c r="C151" t="n">
+      <c r="D151" t="n">
         <v>89</v>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>82 - 92</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>BEGINNING SPANISH</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G151" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="I151" t="inlineStr">
         <is>
           <t>DRAMA</t>
         </is>
@@ -6176,33 +6931,38 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
+          <t>0172291</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
           <t>Shepherd,  Jake Alec</t>
         </is>
       </c>
-      <c r="C152" t="n">
+      <c r="D152" t="n">
         <v>54</v>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>47 - 57</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="I152" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -6214,33 +6974,38 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
+          <t>8190393</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
           <t>Shevchenko,  Talia Lee</t>
         </is>
       </c>
-      <c r="C153" t="n">
+      <c r="D153" t="n">
         <v>98</v>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="I153" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
@@ -6252,33 +7017,38 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
+          <t>8405118</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
           <t>Singhabahu,  Vidun Nethvin</t>
         </is>
       </c>
-      <c r="C154" t="n">
+      <c r="D154" t="n">
         <v>68</v>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>61 - 71</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>DIGITAL TECHNOLOGIES</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>DESIGN &amp; GRAPHICS</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H154" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
@@ -6290,33 +7060,38 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
+          <t>8190369</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
           <t>Smith,  Ava Elizabeth</t>
         </is>
       </c>
-      <c r="C155" t="n">
+      <c r="D155" t="n">
         <v>80</v>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>73 - 83</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F155" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
           <t>DRAMA</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="I155" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
@@ -6328,33 +7103,38 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
+          <t>0308156</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
           <t>Smyth,  Astrid Eloise</t>
         </is>
       </c>
-      <c r="C156" t="n">
+      <c r="D156" t="n">
         <v>94</v>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>87 - 97</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G156" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="I156" t="inlineStr">
         <is>
           <t>DESIGN &amp; GRAPHICS</t>
         </is>
@@ -6366,33 +7146,38 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
+          <t>0497770</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
           <t>Snare,  Charlotte Ella</t>
         </is>
       </c>
-      <c r="C157" t="n">
+      <c r="D157" t="n">
         <v>94</v>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>87 - 97</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>VISUAL ARTS</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G157" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="I157" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
@@ -6404,33 +7189,38 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
+          <t>0622043</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
           <t>Staughton,  Athena Grace</t>
         </is>
       </c>
-      <c r="C158" t="n">
+      <c r="D158" t="n">
         <v>93</v>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>86 - 96</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="G158" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="I158" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -6442,33 +7232,38 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
+          <t>0383869</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
           <t>Surman-Schmidt,  Yasmin Sofia</t>
         </is>
       </c>
-      <c r="C159" t="n">
+      <c r="D159" t="n">
         <v>97</v>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H159" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -6480,33 +7275,38 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
+          <t>4010018</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
           <t>Taylor,  Grace April</t>
         </is>
       </c>
-      <c r="C160" t="n">
+      <c r="D160" t="n">
         <v>92</v>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>85 - 95</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>EARTH &amp; ENVIRONMENTAL SCIENCE</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
@@ -6518,33 +7318,38 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
+          <t>2680271</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
           <t>Tewari,  Harry</t>
         </is>
       </c>
-      <c r="C161" t="n">
+      <c r="D161" t="n">
         <v>99</v>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="I161" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
@@ -6556,33 +7361,38 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
+          <t>0637237</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
           <t>Thumma,  Amulya Reddy</t>
         </is>
       </c>
-      <c r="C162" t="n">
+      <c r="D162" t="n">
         <v>96</v>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>89 - 99</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="I162" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
@@ -6594,33 +7404,38 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
+          <t>8190793</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
           <t>Van Gorp,  Tamsin Ida</t>
         </is>
       </c>
-      <c r="C163" t="n">
+      <c r="D163" t="n">
         <v>57</v>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>50 - 60</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>DESIGN AND TEXTILES</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H163" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
@@ -6632,33 +7447,38 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
+          <t>8110636</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
           <t>Volker Smith,  Lucia Margaret Ellen</t>
         </is>
       </c>
-      <c r="C164" t="n">
+      <c r="D164" t="n">
         <v>79</v>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>72 - 82</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F164" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="I164" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -6670,33 +7490,38 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
+          <t>0357663</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
           <t>Waddell-Wood,  Rose Julia</t>
         </is>
       </c>
-      <c r="C165" t="n">
+      <c r="D165" t="n">
         <v>92</v>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>85 - 95</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F165" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>GLOBAL STUDIES</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="I165" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
@@ -6708,33 +7533,38 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
+          <t>8330818</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
           <t>Walker,  Patrick Peter</t>
         </is>
       </c>
-      <c r="C166" t="n">
+      <c r="D166" t="n">
         <v>60</v>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>53 - 63</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F166" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="I166" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
@@ -6746,33 +7576,38 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
+          <t>0308179</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
           <t>Wang,  Matthew</t>
         </is>
       </c>
-      <c r="C167" t="n">
+      <c r="D167" t="n">
         <v>99</v>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
@@ -6784,33 +7619,38 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
+          <t>8190401</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
           <t>Weerasooriya,  Amali</t>
         </is>
       </c>
-      <c r="C168" t="n">
+      <c r="D168" t="n">
         <v>93</v>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>86 - 96</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F168" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="I168" t="inlineStr">
         <is>
           <t>PHILOSOPHY</t>
         </is>
@@ -6822,33 +7662,38 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
+          <t>0286723</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
           <t>Wildie,  Tayte Henri</t>
         </is>
       </c>
-      <c r="C169" t="n">
+      <c r="D169" t="n">
         <v>97</v>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>PHYSICS</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="I169" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
@@ -6860,33 +7705,38 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
+          <t>8190396</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
           <t>Williams,  Alison Catherine</t>
         </is>
       </c>
-      <c r="C170" t="n">
+      <c r="D170" t="n">
         <v>83</v>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>76 - 86</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>LEGAL STUDIES</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="I170" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
@@ -6898,33 +7748,38 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
+          <t>0357654</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
           <t>Wills,  Andrew Alexander</t>
         </is>
       </c>
-      <c r="C171" t="n">
+      <c r="D171" t="n">
         <v>66</v>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>59 - 69</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H171" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
@@ -6936,33 +7791,38 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
+          <t>8060162</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
           <t>Wiseman,  Darcy Robert</t>
         </is>
       </c>
-      <c r="C172" t="n">
+      <c r="D172" t="n">
         <v>98</v>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>90 - 100</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>PHILOSOPHY</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="I172" t="inlineStr">
         <is>
           <t>SPECIALIST MATHEMATICS</t>
         </is>
@@ -6974,33 +7834,38 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
+          <t>0467368</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
           <t>Wood,  Katie Elizabeth</t>
         </is>
       </c>
-      <c r="C173" t="n">
+      <c r="D173" t="n">
         <v>92</v>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>85 - 95</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F173" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
           <t>LEGAL STUDIES</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="I173" t="inlineStr">
         <is>
           <t>MODERN HISTORY</t>
         </is>
@@ -7012,33 +7877,38 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
+          <t>0726471</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
           <t>Wyman,  Alexander John</t>
         </is>
       </c>
-      <c r="C174" t="n">
+      <c r="D174" t="n">
         <v>67</v>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>60 - 70</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>MATHEMATICAL APPLICATIONS</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
+      <c r="I174" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
@@ -7050,33 +7920,38 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
+          <t>8190403</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
           <t>Yip,  Michael Kai-Chung</t>
         </is>
       </c>
-      <c r="C175" t="n">
+      <c r="D175" t="n">
         <v>87</v>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>80 - 90</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H175" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
         <is>
           <t>ECONOMICS</t>
         </is>
@@ -7088,33 +7963,38 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
+          <t>0427523</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
           <t>Young,  Mathew Llewellyn</t>
         </is>
       </c>
-      <c r="C176" t="n">
+      <c r="D176" t="n">
         <v>70</v>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>63 - 73</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="F176" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="I176" t="inlineStr">
         <is>
           <t>BUSINESS</t>
         </is>
@@ -7126,33 +8006,38 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
+          <t>0357710</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
           <t>Young,  Miranda Helen</t>
         </is>
       </c>
-      <c r="C177" t="n">
+      <c r="D177" t="n">
         <v>68</v>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>61 - 71</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>CONTINUING JAPANESE</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>EXERCISE SCIENCE</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H177" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
         <is>
           <t>DESIGN AND TEXTILES</t>
         </is>
@@ -7164,33 +8049,38 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
+          <t>8190397</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
           <t>Zentelis-Wilde,  Finn Henry</t>
         </is>
       </c>
-      <c r="C178" t="n">
+      <c r="D178" t="n">
         <v>93</v>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>86 - 96</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>SPECIALIST METHODS</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>BIOLOGY</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="I178" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
@@ -7202,33 +8092,38 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
+          <t>0637842</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
           <t>Ziaee,  Mahla</t>
         </is>
       </c>
-      <c r="C179" t="n">
+      <c r="D179" t="n">
         <v>56</v>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>49 - 59</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>MATHEMATICAL METHODS</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
       <c r="H179" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
